--- a/data/trans_dic/P27F_5_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P27F_5_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -50,6 +51,34 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,12 +521,18 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no pudo recibir consulta con algún psiquiatra por motivos económicos cuando la necesitaba</t>
+          <t>Población que no pudo recibir consulta con algún psiquiatra por motivos económicos cuando la necesitaba (tasa de respuesta: 99,72%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -506,16 +541,22 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -527,12 +568,42 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -542,6 +613,12 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -556,17 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>1,06%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1,24%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>4,19%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1,55%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1,27%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>3,26%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1,31%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1,25%</t>
         </is>
       </c>
     </row>
@@ -579,17 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,21; 4,3</t>
+          <t>1,15; 4,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,88; 5,89</t>
+          <t>0,49; 2,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,4; 4,42</t>
+          <t>0,51; 2,86</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>3,0; 5,8</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0,88; 2,44</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0,61; 2,36</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2,41; 4,56</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0,82; 1,97</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0,72; 2,13</t>
         </is>
       </c>
     </row>
@@ -611,12 +748,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>1,57%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0,33%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>1,67%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0,44%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2,95%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>1,23%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1,03%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1,64%</t>
         </is>
       </c>
     </row>
@@ -629,17 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,76</t>
+          <t>0,0; 3,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,54; 4,09</t>
+          <t>0,33; 4,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,7</t>
+          <t>0,0; 1,21</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0,44; 4,14</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,36</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1,72; 4,98</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0,42; 2,56</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0,33; 2,59</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0,93; 2,69</t>
         </is>
       </c>
     </row>
@@ -666,7 +863,37 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1,1%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0,54%</t>
         </is>
       </c>
     </row>
@@ -692,6 +919,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,69</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,91</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -706,17 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>1,18%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0,72%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>3,65%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1,3%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>1,9%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>2,8%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>1,24%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1,32%</t>
         </is>
       </c>
     </row>
@@ -729,28 +1016,863 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,11; 3,51</t>
+          <t>1,05; 3,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,67; 5,21</t>
+          <t>0,59; 2,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,13; 3,84</t>
+          <t>0,35; 1,51</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>2,58; 5,12</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0,79; 2,09</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>1,25; 2,77</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2,16; 3,76</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>0,82; 1,85</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0,92; 1,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no pudo recibir consulta con algún psiquiatra por motivos económicos cuando la necesitaba (tasa de respuesta: 99,72%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>5236</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>2400</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>20321</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>9954</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>3656</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>22683</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>15190</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>6056</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>43004</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2627; 9600</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1112; 5036</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>8338; 46767</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>7112; 13756</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2082; 5758</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>10854; 42372</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>11235; 21243</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>3792; 9109</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>24597; 73096</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>602</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1145</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>4504</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1093</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>40743</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1694</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1436</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>45247</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2232</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>242; 3377</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 16702</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>284; 2706</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1581</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>23692; 68805</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>579; 3515</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>460; 3625</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>25618; 74302</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>4513</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>4513</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 15111</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 15853</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>5838</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>3545</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>24825</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>11046</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>3947</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>67939</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>16884</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>7493</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>92764</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>3160; 10718</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1759; 6766</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>11913; 51993</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>7824; 15512</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>2387; 6319</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>44844; 99136</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>13025; 22690</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>4934; 11144</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>64740; 130051</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>